--- a/xlsx/武器_intext.xlsx
+++ b/xlsx/武器_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
   <si>
     <t>武器</t>
   </si>
@@ -29,19 +29,19 @@
     <t>冷兵器</t>
   </si>
   <si>
-    <t>政策_政策_美國_武器</t>
+    <t>政策_政策_美国_武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>攻擊</t>
+    <t>攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5</t>
   </si>
   <si>
-    <t>狩獵</t>
+    <t>狩猎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%9B</t>
   </si>
   <si>
-    <t>自衛</t>
+    <t>自卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%A3%92</t>
   </si>
   <si>
@@ -107,19 +104,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D</t>
   </si>
   <si>
-    <t>劍</t>
+    <t>剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D</t>
   </si>
   <si>
-    <t>槍</t>
+    <t>枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2%E9%9A%9B%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>洲際彈道飛彈</t>
+    <t>洲际弹道飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%AD%A6%E5%99%A8</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E8%88%AA%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>導航系統</t>
+    <t>导航系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%8A%80%E6%9C%AF%E4%B8%8E%E8%A3%85%E5%A4%87</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%97%A5</t>
   </si>
   <si>
-    <t>火藥</t>
+    <t>火药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%85%B5%E5%99%A8</t>
   </si>
   <si>
-    <t>熱兵器</t>
+    <t>热兵器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -209,43 +206,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%8A%95%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>質量投射器</t>
+    <t>质量投射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E8%BB%8C%E7%A0%B2</t>
   </si>
   <si>
-    <t>磁軌砲</t>
+    <t>磁轨砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>投石機</t>
+    <t>投石机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A6%B4%E5%BD%88</t>
   </si>
   <si>
-    <t>手榴彈</t>
+    <t>手榴弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>手槍</t>
+    <t>手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>步槍</t>
+    <t>步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%A0%B2</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7</t>
@@ -269,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲音</t>
+    <t>声音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E7%88%86</t>
   </si>
   <si>
-    <t>聲爆</t>
+    <t>声爆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中古世紀</t>
+    <t>中古世纪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_weapon</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%85%B5%E5%99%A8</t>
   </si>
   <si>
-    <t>輕兵器</t>
+    <t>轻兵器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SALW</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8D</t>
   </si>
   <si>
-    <t>機槍</t>
+    <t>机枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%B4%E5%BC%B9%E5%8F%91%E5%B0%84%E5%99%A8</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9D%A6%E5%85%8B%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>反坦克導彈</t>
+    <t>反坦克导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E6%90%BA%E5%BC%8F%E9%98%B2%E7%A9%BA%E5%AF%BC%E5%BC%B9</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>迫擊砲</t>
+    <t>迫击砲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/explosive_weapon</t>
@@ -377,19 +374,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>戰鬥車輛</t>
+    <t>战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E8%BB%8A%E7%82%AE</t>
   </si>
   <si>
-    <t>列車炮</t>
+    <t>列车炮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_aircraft_weapons</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直昇機</t>
+    <t>直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%B0%B4%E8%89%87</t>
   </si>
   <si>
-    <t>潛水艇</t>
+    <t>潜水艇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_weapon</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>軍用機器人</t>
+    <t>军用机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%89%A9%E8%B4%A8%E6%AD%A6%E5%99%A8</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>反物質</t>
+    <t>反物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%84%E7%AE%AD</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Directed-energy_weapon</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%A2%B0</t>
   </si>
   <si>
-    <t>槍械</t>
+    <t>枪械</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Improvised_weapons</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E7%87%92%E5%BD%88</t>
   </si>
   <si>
-    <t>燃燒彈</t>
+    <t>燃烧弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%87%B4%E5%91%BD%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>導彈</t>
+    <t>导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%A8%AD%E9%98%B2%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>反設防武器</t>
+    <t>反设防武器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-personnel_weapon</t>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%BC%BB%E5%B0%84%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>反輻射飛彈</t>
+    <t>反辐射飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%A1%9B%E6%98%9F%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>反衛星武器</t>
+    <t>反卫星武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-submarine_weapon</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9D%A6%E5%85%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>反坦克戰</t>
+    <t>反坦克战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Area_denial_weapons</t>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>衝突</t>
+    <t>冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>發展</t>
+    <t>发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -659,25 +656,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
+    <t>钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%94%AF</t>
@@ -689,25 +686,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%94%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>鐵甲艦</t>
+    <t>铁甲舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E4%BA%8B%E5%8B%99%E8%AE%8A%E9%9D%A9</t>
   </si>
   <si>
-    <t>軍事事務變革</t>
+    <t>军事事务变革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E6%9D%80%E4%BC%A4%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -719,25 +716,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>原子彈</t>
+    <t>原子弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核武競賽</t>
+    <t>核武竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AF%81%E6%AF%81%E7%81%AD</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%BD%93%E9%98%B2%E5%8D%AB</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E7%A0%B2%E5%BD%88%E8%97%A5%E5%88%80%E6%A2%B0%E7%AE%A1%E5%88%B6%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>槍砲彈藥刀械管制條例</t>
+    <t>枪砲弹药刀械管制条例</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_gun_laws</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%82%99%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>軍備控制</t>
+    <t>军备控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%B1%82%E7%A9%BA%E9%97%B4%E6%9D%A1%E7%BA%A6</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E4%B8%8D%E6%93%B4%E6%95%A3%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>核不擴散條約</t>
+    <t>核不扩散条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%A6%E6%AD%A6%E5%99%A8%E5%85%AC%E7%BA%A6</t>
@@ -827,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%AD%A6%E5%99%A8%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物武器公約</t>
+    <t>生物武器公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%88%86%E7%82%B8%E5%BC%B9%E8%8D%AF</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%B9%B3%E5%8F%B0</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞州</t>
+    <t>马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8%E8%B4%B8%E6%98%93%E6%9D%A1%E7%BA%A6</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E5%87%BB%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -923,9 +920,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
   </si>
   <si>
-    <t>导弹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E5%9B%BD%E9%99%85%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -959,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E5%B0%87%E8%8E%AB%E9%82%AA</t>
   </si>
   <si>
-    <t>干將莫邪</t>
+    <t>干将莫邪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%92%E8%BD%85%E5%8A%8D</t>
   </si>
   <si>
-    <t>軒轅劍</t>
+    <t>轩辕剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%95%89%E6%89%87</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E7%81%AB%E8%BC%AA</t>
   </si>
   <si>
-    <t>風火輪</t>
+    <t>风火轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E5%9D%A4%E5%9C%88</t>
@@ -989,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%A4%A9%E7%B6%BE</t>
   </si>
   <si>
-    <t>混天綾</t>
+    <t>混天绫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B0%96%E6%A7%8D</t>
   </si>
   <si>
-    <t>火尖槍</t>
+    <t>火尖枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B0%96%E4%B8%A4%E5%88%83%E5%88%80</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E5%A6%96%E5%AF%B6%E6%9D%96</t>
   </si>
   <si>
-    <t>降妖寶杖</t>
+    <t>降妖宝杖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%99%B8%E6%96%AF</t>
@@ -1037,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%81%86%E4%B9%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>永恆之槍</t>
+    <t>永恒之枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9D%E5%88%A9%E4%B9%8B%E5%8A%8D</t>
   </si>
   <si>
-    <t>勝利之劍</t>
+    <t>胜利之剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%A5%9E%E4%B9%8B%E9%8E%9A</t>
   </si>
   <si>
-    <t>雷神之鎚</t>
+    <t>雷神之锤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%A2%A8</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%88%BE%E9%8B%92</t>
   </si>
   <si>
-    <t>提爾鋒</t>
+    <t>提尔锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%96%AF%E7%89%B9%E6%B1%80</t>
@@ -1079,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E4%B8%AD%E5%8A%8D</t>
   </si>
   <si>
-    <t>石中劍</t>
+    <t>石中剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%80%85%E4%B9%8B%E5%8A%8D</t>
   </si>
   <si>
-    <t>王者之劍</t>
+    <t>王者之剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%8F%A1%E5%8A%8D</t>
   </si>
   <si>
-    <t>十握劍</t>
+    <t>十握剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%89%E6%88%9F</t>
@@ -1103,13 +1097,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A4%A9%E7%95%AB%E6%88%9F</t>
   </si>
   <si>
-    <t>方天畫戟</t>
+    <t>方天画戟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%BE%8D%E5%81%83%E6%9C%88%E5%88%80</t>
   </si>
   <si>
-    <t>青龍偃月刀</t>
+    <t>青龙偃月刀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%88%E5%85%AB%E8%9B%87%E7%9F%9B</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>戰艦</t>
+    <t>战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>國防工業</t>
+    <t>国防工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%9A%B4</t>
@@ -1151,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%85%B7%E6%A7%8D</t>
   </si>
   <si>
-    <t>玩具槍</t>
+    <t>玩具枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>同軸武器</t>
+    <t>同轴武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eurosatory</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -1199,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -1277,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -1487,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -1529,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1625,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1637,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1703,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1721,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1799,13 +1793,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1817,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1895,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1931,13 +1925,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1949,13 +1943,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1991,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -2003,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -2063,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -2093,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -2135,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -2159,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2826,7 +2820,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -2852,10 +2846,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2881,10 +2875,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2910,10 +2904,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2939,10 +2933,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -2968,10 +2962,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>19</v>
@@ -2997,10 +2991,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3026,10 +3020,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -3055,10 +3049,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3084,10 +3078,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3113,10 +3107,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3142,10 +3136,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3171,10 +3165,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3200,10 +3194,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3229,10 +3223,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -3258,10 +3252,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -3287,10 +3281,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3316,10 +3310,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -3345,10 +3339,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3374,10 +3368,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -3403,10 +3397,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -3432,10 +3426,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3461,10 +3455,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3490,10 +3484,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3519,10 +3513,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3548,10 +3542,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3577,10 +3571,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -3606,10 +3600,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3635,10 +3629,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3664,10 +3658,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3693,10 +3687,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3722,10 +3716,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3751,10 +3745,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3780,10 +3774,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3809,10 +3803,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3838,10 +3832,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3867,10 +3861,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3896,10 +3890,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3925,10 +3919,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -3954,10 +3948,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3983,10 +3977,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4012,10 +4006,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4041,10 +4035,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4070,10 +4064,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4099,10 +4093,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4128,10 +4122,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4157,10 +4151,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4186,10 +4180,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4215,10 +4209,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4244,10 +4238,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4273,10 +4267,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4302,10 +4296,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4331,10 +4325,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4360,10 +4354,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4389,10 +4383,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4418,10 +4412,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4447,10 +4441,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4476,10 +4470,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4505,10 +4499,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4534,10 +4528,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4563,10 +4557,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4592,10 +4586,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4621,10 +4615,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>9</v>
@@ -4650,10 +4644,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4679,10 +4673,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4708,10 +4702,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4737,10 +4731,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4766,10 +4760,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4795,10 +4789,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4824,10 +4818,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4853,10 +4847,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4882,10 +4876,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4911,10 +4905,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4940,10 +4934,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4969,10 +4963,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4998,10 +4992,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5027,10 +5021,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5056,10 +5050,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5085,10 +5079,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -5114,10 +5108,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5143,10 +5137,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5172,10 +5166,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5201,10 +5195,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5230,10 +5224,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5259,10 +5253,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5288,10 +5282,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5317,10 +5311,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5346,10 +5340,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5375,10 +5369,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5404,10 +5398,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5433,10 +5427,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5462,10 +5456,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5491,10 +5485,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5520,10 +5514,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5549,10 +5543,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>7</v>
@@ -5578,10 +5572,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>9</v>
@@ -5607,10 +5601,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5636,10 +5630,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5665,10 +5659,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5694,10 +5688,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5723,10 +5717,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5752,10 +5746,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5781,10 +5775,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5810,10 +5804,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5839,10 +5833,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5868,10 +5862,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5897,10 +5891,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5926,10 +5920,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5955,10 +5949,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5984,10 +5978,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6013,10 +6007,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6042,10 +6036,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6071,10 +6065,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6100,10 +6094,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6129,10 +6123,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6158,10 +6152,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6187,10 +6181,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6216,10 +6210,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6245,10 +6239,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6274,10 +6268,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6303,10 +6297,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6332,10 +6326,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6361,10 +6355,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6390,10 +6384,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6419,10 +6413,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6448,10 +6442,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -6477,10 +6471,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6506,10 +6500,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6535,10 +6529,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6564,10 +6558,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6593,10 +6587,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6622,10 +6616,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>11</v>
@@ -6651,10 +6645,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6680,10 +6674,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -6709,10 +6703,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>7</v>
@@ -6738,10 +6732,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6767,10 +6761,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6796,10 +6790,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6825,10 +6819,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6854,10 +6848,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6883,10 +6877,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6912,10 +6906,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6941,10 +6935,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6970,10 +6964,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -6999,10 +6993,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7028,10 +7022,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7057,10 +7051,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7086,10 +7080,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7115,10 +7109,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7144,10 +7138,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7173,10 +7167,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7202,10 +7196,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7231,10 +7225,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7260,10 +7254,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7289,10 +7283,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7318,10 +7312,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7347,10 +7341,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7376,10 +7370,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7405,10 +7399,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7434,10 +7428,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7463,10 +7457,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7492,10 +7486,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7521,10 +7515,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7550,10 +7544,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7579,10 +7573,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7608,10 +7602,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7637,10 +7631,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7666,10 +7660,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7695,10 +7689,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7724,10 +7718,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7753,10 +7747,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7782,10 +7776,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7811,10 +7805,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7840,10 +7834,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7869,10 +7863,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7898,10 +7892,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7956,10 +7950,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7985,10 +7979,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8014,10 +8008,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8043,10 +8037,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8072,10 +8066,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8101,10 +8095,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>6</v>
@@ -8130,10 +8124,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>28</v>
@@ -8159,10 +8153,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8188,10 +8182,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8217,10 +8211,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8246,10 +8240,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8275,10 +8269,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8304,10 +8298,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8333,10 +8327,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8362,10 +8356,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8391,10 +8385,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8420,10 +8414,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8449,10 +8443,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8478,10 +8472,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8507,10 +8501,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8536,10 +8530,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8565,10 +8559,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8594,10 +8588,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F210" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8623,10 +8617,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8652,10 +8646,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8681,10 +8675,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F213" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8710,10 +8704,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8739,10 +8733,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8768,10 +8762,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8797,10 +8791,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8826,10 +8820,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8855,10 +8849,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8884,10 +8878,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8913,10 +8907,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8942,10 +8936,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8971,10 +8965,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9000,10 +8994,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9029,10 +9023,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9058,10 +9052,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9087,10 +9081,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9116,10 +9110,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9145,10 +9139,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9174,10 +9168,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9203,10 +9197,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9232,10 +9226,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9261,10 +9255,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9290,10 +9284,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9319,10 +9313,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9348,10 +9342,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9377,10 +9371,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9406,10 +9400,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>8</v>
@@ -9435,10 +9429,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F239" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9464,10 +9458,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9493,10 +9487,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9522,10 +9516,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9551,10 +9545,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9580,10 +9574,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G244" t="n">
         <v>10</v>
@@ -9609,10 +9603,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9638,10 +9632,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9667,10 +9661,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9696,10 +9690,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9725,10 +9719,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9754,10 +9748,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9783,10 +9777,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9812,10 +9806,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9841,10 +9835,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9870,10 +9864,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9899,10 +9893,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9928,10 +9922,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9957,10 +9951,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9986,10 +9980,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10015,10 +10009,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10044,10 +10038,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10073,10 +10067,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10102,10 +10096,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10131,10 +10125,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10160,10 +10154,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10189,10 +10183,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10218,10 +10212,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10247,10 +10241,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10276,10 +10270,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10305,10 +10299,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10334,10 +10328,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10363,10 +10357,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10392,10 +10386,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -10421,10 +10415,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10450,10 +10444,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10479,10 +10473,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10508,10 +10502,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10537,10 +10531,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10566,10 +10560,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10595,10 +10589,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10624,10 +10618,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10653,10 +10647,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10682,10 +10676,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10711,10 +10705,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10740,10 +10734,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10769,10 +10763,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10798,10 +10792,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -10827,10 +10821,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10856,10 +10850,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10885,10 +10879,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10914,10 +10908,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10943,10 +10937,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10972,10 +10966,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11001,10 +10995,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11030,10 +11024,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11059,10 +11053,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11088,10 +11082,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11117,10 +11111,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11146,10 +11140,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11175,10 +11169,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11204,10 +11198,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11233,10 +11227,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11262,10 +11256,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11291,10 +11285,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11320,10 +11314,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11349,10 +11343,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11378,10 +11372,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11407,10 +11401,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11436,10 +11430,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11465,10 +11459,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11494,10 +11488,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11523,10 +11517,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11552,10 +11546,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11581,10 +11575,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11610,10 +11604,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11639,10 +11633,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11668,10 +11662,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11697,10 +11691,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11726,10 +11720,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F318" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11755,10 +11749,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F319" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11784,10 +11778,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F320" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11813,10 +11807,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F321" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11842,10 +11836,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F322" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11871,10 +11865,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F323" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11900,10 +11894,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F324" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11929,10 +11923,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F325" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11958,10 +11952,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F326" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11987,10 +11981,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F327" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12016,10 +12010,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F328" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G328" t="n">
         <v>5</v>
@@ -12045,10 +12039,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F329" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12074,10 +12068,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F330" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12103,10 +12097,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F331" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12132,10 +12126,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F332" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12161,10 +12155,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F333" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12190,10 +12184,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F334" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12219,10 +12213,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F335" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12248,10 +12242,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F336" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12277,10 +12271,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F337" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12306,10 +12300,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F338" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12335,10 +12329,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F339" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12364,10 +12358,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F340" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12393,10 +12387,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F341" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12422,10 +12416,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F342" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12451,10 +12445,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F343" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12480,10 +12474,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F344" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12509,10 +12503,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F345" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12538,10 +12532,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F346" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12567,10 +12561,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F347" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12596,10 +12590,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F348" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12625,10 +12619,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F349" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12654,10 +12648,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F350" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12683,10 +12677,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F351" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12712,10 +12706,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F352" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12741,10 +12735,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F353" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12770,10 +12764,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F354" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12799,10 +12793,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F355" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12828,10 +12822,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F356" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12857,10 +12851,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F357" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12886,10 +12880,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F358" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12915,10 +12909,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F359" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -12944,10 +12938,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F360" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>

--- a/xlsx/武器_intext.xlsx
+++ b/xlsx/武器_intext.xlsx
@@ -29,7 +29,7 @@
     <t>冷兵器</t>
   </si>
   <si>
-    <t>政策_政策_美國_武器</t>
+    <t>体育运动_体育运动_技术_武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A</t>
